--- a/mandays_kmp.xlsx
+++ b/mandays_kmp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tembaga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A8AC81-802C-46C3-9684-D8D85FF2582D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0098BE0C-14C2-4F75-9C40-B00A31F2D60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C83E623-44C6-470C-B78C-BCB7B0883537}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="212">
   <si>
     <t xml:space="preserve">kekurangan - </t>
   </si>
@@ -657,6 +657,18 @@
   </si>
   <si>
     <t>Tambahin kurasan rolling di produksi wip</t>
+  </si>
+  <si>
+    <t>Ganti LAGI laporan pengeluaran untuk cuci masuk ke produksi</t>
+  </si>
+  <si>
+    <t>Laporan Langgan di tambahin bentuk laporannya sesuai yg diminta</t>
+  </si>
+  <si>
+    <t>Halaman baru untuk kirim data matching ke tanghosting</t>
+  </si>
+  <si>
+    <t>Laporan piutang per tanggal di tanghosting</t>
   </si>
 </sst>
 </file>
@@ -664,7 +676,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -731,7 +743,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1066,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFED259E-AF3E-415D-8D61-0A729BD8548B}">
-  <dimension ref="C2:G211"/>
+  <dimension ref="C2:G215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3481,6 +3493,50 @@
         <v>207</v>
       </c>
     </row>
+    <row r="212" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C212" s="2">
+        <v>131</v>
+      </c>
+      <c r="D212" t="s">
+        <v>208</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="213" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C213" s="2">
+        <v>132</v>
+      </c>
+      <c r="D213" t="s">
+        <v>209</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="214" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C214" s="2">
+        <v>133</v>
+      </c>
+      <c r="D214" t="s">
+        <v>210</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="215" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C215" s="2">
+        <v>134</v>
+      </c>
+      <c r="D215" t="s">
+        <v>211</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D171:D172"/>

--- a/mandays_kmp.xlsx
+++ b/mandays_kmp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tembaga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0098BE0C-14C2-4F75-9C40-B00A31F2D60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11B87EE-F3E7-42C9-9D04-9A489A451CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C83E623-44C6-470C-B78C-BCB7B0883537}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="219">
   <si>
     <t xml:space="preserve">kekurangan - </t>
   </si>
@@ -669,6 +669,27 @@
   </si>
   <si>
     <t>Laporan piutang per tanggal di tanghosting</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Laporan piutang per customer</t>
+  </si>
+  <si>
+    <t>Total SO Per Size</t>
+  </si>
+  <si>
+    <t>Laporan Rolling ditambah penerimaan bahan baku. BS 8mm</t>
+  </si>
+  <si>
+    <t>Di mozilla bisa ada page numbernya. Dicoba cek lagi</t>
+  </si>
+  <si>
+    <t>Tanghosting di filterin tanggalnya</t>
+  </si>
+  <si>
+    <t>Susut di Laporan tolling , mengurangi yg di surat jalan</t>
   </si>
 </sst>
 </file>
@@ -676,7 +697,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -743,7 +764,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1078,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFED259E-AF3E-415D-8D61-0A729BD8548B}">
-  <dimension ref="C2:G215"/>
+  <dimension ref="C2:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="F215" sqref="F215"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3537,6 +3558,71 @@
         <v>98</v>
       </c>
     </row>
+    <row r="217" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C217" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="218" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C218" s="2">
+        <v>135</v>
+      </c>
+      <c r="D218" t="s">
+        <v>213</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="219" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C219" s="2">
+        <v>136</v>
+      </c>
+      <c r="D219" t="s">
+        <v>214</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="220" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C220" s="2">
+        <v>137</v>
+      </c>
+      <c r="D220" t="s">
+        <v>215</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="221" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C221" s="2">
+        <v>138</v>
+      </c>
+      <c r="D221" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C222" s="2">
+        <v>139</v>
+      </c>
+      <c r="D222" t="s">
+        <v>218</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="223" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C223" s="2">
+        <v>140</v>
+      </c>
+      <c r="D223" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D171:D172"/>

--- a/mandays_kmp.xlsx
+++ b/mandays_kmp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tembaga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11B87EE-F3E7-42C9-9D04-9A489A451CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E5C148-B71A-4C41-AD89-E0FABFCA227E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C83E623-44C6-470C-B78C-BCB7B0883537}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="231">
   <si>
     <t xml:space="preserve">kekurangan - </t>
   </si>
@@ -690,6 +690,42 @@
   </si>
   <si>
     <t>Susut di Laporan tolling , mengurangi yg di surat jalan</t>
+  </si>
+  <si>
+    <t>Laporan bahan pembantu dibuat jadi kayak laporan gudang,  jadi diproses dulu, terus bisa buat koreksi stok_akhir</t>
+  </si>
+  <si>
+    <t>Laporan gudang fg, tambah pemasukan "lain lain" &amp; "gudang rsk"</t>
+  </si>
+  <si>
+    <t>Print Surat Jalan bisa di scale. Tapi tetep center</t>
+  </si>
+  <si>
+    <t>Laporan Bahan Bakar Rolling gas kanan/kiri dibuat otomatis kayak apollo</t>
+  </si>
+  <si>
+    <t>Surat jalan biasa yg di so gabisa di resize di mozilla, yg lain bisa, di cek lagi</t>
+  </si>
+  <si>
+    <t>Laporan rolling diubah, karena ada request baru tanpa ada produksi rolling bisa masuk laporan</t>
+  </si>
+  <si>
+    <t>Ganti barcode rongsok</t>
+  </si>
+  <si>
+    <t>Login KMP 1. bisa edit dtr dan edit ttr. Cuman kalau edit po, harus hapus po, dtr, dan ttr yang bersangkutan.</t>
+  </si>
+  <si>
+    <t>Edit penerimaan bobbin plastik. Tambahin adjustment untuk mengurangi / menambah qty</t>
+  </si>
+  <si>
+    <t>Mengurangi Stok gudang keras manual</t>
+  </si>
+  <si>
+    <t>Laporan FG Dikasih header di page selanjutnya</t>
+  </si>
+  <si>
+    <t>Tanghosting, Gudang dan produksi ngga boleh buka finance</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFED259E-AF3E-415D-8D61-0A729BD8548B}">
-  <dimension ref="C2:G223"/>
+  <dimension ref="C2:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D223" sqref="D223"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3603,6 +3639,9 @@
       <c r="D221" t="s">
         <v>216</v>
       </c>
+      <c r="F221" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C222" s="2">
@@ -3621,6 +3660,138 @@
       </c>
       <c r="D223" t="s">
         <v>217</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="224" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C224" s="2">
+        <v>141</v>
+      </c>
+      <c r="D224" t="s">
+        <v>219</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="225" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C225" s="2">
+        <v>142</v>
+      </c>
+      <c r="D225" t="s">
+        <v>220</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="226" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C226" s="2">
+        <v>143</v>
+      </c>
+      <c r="D226" t="s">
+        <v>221</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="227" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C227" s="2">
+        <v>144</v>
+      </c>
+      <c r="D227" t="s">
+        <v>222</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="228" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C228" s="2">
+        <v>145</v>
+      </c>
+      <c r="D228" t="s">
+        <v>223</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="229" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C229" s="2">
+        <v>146</v>
+      </c>
+      <c r="D229" t="s">
+        <v>224</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="230" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C230" s="2">
+        <v>147</v>
+      </c>
+      <c r="D230" t="s">
+        <v>225</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="231" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C231" s="2">
+        <v>148</v>
+      </c>
+      <c r="D231" t="s">
+        <v>226</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="232" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C232" s="2">
+        <v>149</v>
+      </c>
+      <c r="D232" t="s">
+        <v>227</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="233" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C233" s="2">
+        <v>150</v>
+      </c>
+      <c r="D233" t="s">
+        <v>228</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="234" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C234" s="2">
+        <v>151</v>
+      </c>
+      <c r="D234" t="s">
+        <v>229</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="235" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C235" s="2">
+        <v>152</v>
+      </c>
+      <c r="D235" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
